--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,16 +88,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ntn1</t>
+  </si>
+  <si>
+    <t>Mcam</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Ntn1</t>
-  </si>
-  <si>
-    <t>Mcam</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H2">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J2">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N2">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O2">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P2">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q2">
-        <v>49.23553230977321</v>
+        <v>220.5906857212536</v>
       </c>
       <c r="R2">
-        <v>443.1197907879589</v>
+        <v>1985.316171491282</v>
       </c>
       <c r="S2">
-        <v>0.03489694818823265</v>
+        <v>0.07785409966198605</v>
       </c>
       <c r="T2">
-        <v>0.03489694818823264</v>
+        <v>0.07785409966198603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H3">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J3">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.450001</v>
       </c>
       <c r="O3">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P3">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q3">
-        <v>1.257265210309222</v>
+        <v>2.267921254089555</v>
       </c>
       <c r="R3">
-        <v>11.315386892783</v>
+        <v>20.411291286806</v>
       </c>
       <c r="S3">
-        <v>0.0008911190119156943</v>
+        <v>0.0008004280269772638</v>
       </c>
       <c r="T3">
-        <v>0.0008911190119156943</v>
+        <v>0.0008004280269772635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H4">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J4">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N4">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P4">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q4">
-        <v>0.2378242337384445</v>
+        <v>0.7883583005402222</v>
       </c>
       <c r="R4">
-        <v>2.140418103646</v>
+        <v>7.095224704862001</v>
       </c>
       <c r="S4">
-        <v>0.0001685640344144145</v>
+        <v>0.0002782389723252891</v>
       </c>
       <c r="T4">
-        <v>0.0001685640344144145</v>
+        <v>0.000278238972325289</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H5">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J5">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N5">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O5">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P5">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q5">
-        <v>26.08912281633522</v>
+        <v>45.87182067127489</v>
       </c>
       <c r="R5">
-        <v>234.802105347017</v>
+        <v>412.846386041474</v>
       </c>
       <c r="S5">
-        <v>0.0184913359211792</v>
+        <v>0.01618975563968745</v>
       </c>
       <c r="T5">
-        <v>0.0184913359211792</v>
+        <v>0.01618975563968745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,14 +776,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H6">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J6">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N6">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P6">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q6">
-        <v>1.563786964764333</v>
+        <v>3.348005003035778</v>
       </c>
       <c r="R6">
-        <v>14.074082682879</v>
+        <v>30.132045027322</v>
       </c>
       <c r="S6">
-        <v>0.001108374178702281</v>
+        <v>0.001181627022568621</v>
       </c>
       <c r="T6">
-        <v>0.001108374178702281</v>
+        <v>0.001181627022568621</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8475943333333333</v>
+        <v>1.528935333333333</v>
       </c>
       <c r="H7">
-        <v>2.542783</v>
+        <v>4.586806</v>
       </c>
       <c r="I7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346326</v>
       </c>
       <c r="J7">
-        <v>0.05593357876111178</v>
+        <v>0.09667748002346324</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N7">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O7">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P7">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q7">
-        <v>0.5322381031418889</v>
+        <v>1.057789833205778</v>
       </c>
       <c r="R7">
-        <v>4.790142928277</v>
+        <v>9.520108498852</v>
       </c>
       <c r="S7">
-        <v>0.0003772374266675471</v>
+        <v>0.0003733306999185942</v>
       </c>
       <c r="T7">
-        <v>0.0003772374266675471</v>
+        <v>0.000373330699918594</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>32.140514</v>
       </c>
       <c r="I8">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J8">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N8">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O8">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P8">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q8">
-        <v>622.3320336417689</v>
+        <v>1545.715694688973</v>
       </c>
       <c r="R8">
-        <v>5600.988302775922</v>
+        <v>13911.44125220076</v>
       </c>
       <c r="S8">
-        <v>0.4410938140616663</v>
+        <v>0.5455366501533873</v>
       </c>
       <c r="T8">
-        <v>0.4410938140616663</v>
+        <v>0.545536650153387</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>32.140514</v>
       </c>
       <c r="I9">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J9">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.450001</v>
       </c>
       <c r="O9">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P9">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q9">
         <v>15.89170216005711</v>
@@ -1013,10 +1013,10 @@
         <v>143.025319440514</v>
       </c>
       <c r="S9">
-        <v>0.01126365210013695</v>
+        <v>0.005608732570563289</v>
       </c>
       <c r="T9">
-        <v>0.01126365210013695</v>
+        <v>0.005608732570563288</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1045,40 +1045,40 @@
         <v>32.140514</v>
       </c>
       <c r="I10">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J10">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N10">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P10">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q10">
-        <v>3.006073705074223</v>
+        <v>5.524157986086443</v>
       </c>
       <c r="R10">
-        <v>27.05466334566801</v>
+        <v>49.717421874778</v>
       </c>
       <c r="S10">
-        <v>0.002130631952468209</v>
+        <v>0.001949666845592895</v>
       </c>
       <c r="T10">
-        <v>0.002130631952468209</v>
+        <v>0.001949666845592895</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -1107,10 +1107,10 @@
         <v>32.140514</v>
       </c>
       <c r="I11">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J11">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N11">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O11">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P11">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q11">
-        <v>329.7638127697651</v>
+        <v>321.4314916503117</v>
       </c>
       <c r="R11">
-        <v>2967.874314927886</v>
+        <v>2892.883424852806</v>
       </c>
       <c r="S11">
-        <v>0.2337285726125127</v>
+        <v>0.1134443156728132</v>
       </c>
       <c r="T11">
-        <v>0.2337285726125127</v>
+        <v>0.1134443156728131</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>32.140514</v>
       </c>
       <c r="I12">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J12">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N12">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P12">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q12">
-        <v>19.76610541836467</v>
+        <v>23.46002897705755</v>
       </c>
       <c r="R12">
-        <v>177.894948765282</v>
+        <v>211.140260793518</v>
       </c>
       <c r="S12">
-        <v>0.01400973492736863</v>
+        <v>0.008279857456723718</v>
       </c>
       <c r="T12">
-        <v>0.01400973492736863</v>
+        <v>0.008279857456723714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>32.140514</v>
       </c>
       <c r="I13">
-        <v>0.7069946476917676</v>
+        <v>0.6774352131262671</v>
       </c>
       <c r="J13">
-        <v>0.7069946476917677</v>
+        <v>0.677435213126267</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N13">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O13">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P13">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q13">
-        <v>6.727434549218445</v>
+        <v>7.412109634287555</v>
       </c>
       <c r="R13">
-        <v>60.546910942966</v>
+        <v>66.70898670858799</v>
       </c>
       <c r="S13">
-        <v>0.004768242037614799</v>
+        <v>0.002615990427186886</v>
       </c>
       <c r="T13">
-        <v>0.004768242037614799</v>
+        <v>0.002615990427186885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H14">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J14">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N14">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O14">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P14">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q14">
-        <v>3.693986921991221</v>
+        <v>30.80604434870812</v>
       </c>
       <c r="R14">
-        <v>33.24588229792099</v>
+        <v>277.2543991383731</v>
       </c>
       <c r="S14">
-        <v>0.002618208114694199</v>
+        <v>0.01087252092749991</v>
       </c>
       <c r="T14">
-        <v>0.002618208114694198</v>
+        <v>0.0108725209274999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H15">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J15">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.450001</v>
       </c>
       <c r="O15">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P15">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q15">
-        <v>0.09432864897522222</v>
+        <v>0.3167209100621112</v>
       </c>
       <c r="R15">
-        <v>0.8489578407770001</v>
+        <v>2.850488190559</v>
       </c>
       <c r="S15">
-        <v>6.685785288647927E-05</v>
+        <v>0.0001117817881402722</v>
       </c>
       <c r="T15">
-        <v>6.685785288647926E-05</v>
+        <v>0.0001117817881402721</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H16">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J16">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N16">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P16">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q16">
-        <v>0.01784320323044445</v>
+        <v>0.1100962204714444</v>
       </c>
       <c r="R16">
-        <v>0.160588829074</v>
+        <v>0.9908659842430002</v>
       </c>
       <c r="S16">
-        <v>1.264682861002246E-05</v>
+        <v>3.885677263736789E-05</v>
       </c>
       <c r="T16">
-        <v>1.264682861002246E-05</v>
+        <v>3.885677263736788E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H17">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J17">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N17">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O17">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P17">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q17">
-        <v>1.957384717269222</v>
+        <v>6.406115187206779</v>
       </c>
       <c r="R17">
-        <v>17.616462455423</v>
+        <v>57.65503668486101</v>
       </c>
       <c r="S17">
-        <v>0.001387346695740377</v>
+        <v>0.002260940114494172</v>
       </c>
       <c r="T17">
-        <v>0.001387346695740377</v>
+        <v>0.002260940114494171</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>24</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H18">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J18">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N18">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O18">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P18">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q18">
-        <v>0.1173260108223333</v>
+        <v>0.4675573234925556</v>
       </c>
       <c r="R18">
-        <v>1.055934097401</v>
+        <v>4.208015911433001</v>
       </c>
       <c r="S18">
-        <v>8.315782380576131E-05</v>
+        <v>0.0001650171871122375</v>
       </c>
       <c r="T18">
-        <v>8.31578238057613E-05</v>
+        <v>0.0001650171871122375</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06359233333333333</v>
+        <v>0.2135196666666667</v>
       </c>
       <c r="H19">
-        <v>0.190777</v>
+        <v>0.6405590000000001</v>
       </c>
       <c r="I19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="J19">
-        <v>0.00419652025175118</v>
+        <v>0.01350125336156567</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N19">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O19">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P19">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q19">
-        <v>0.03993214859588889</v>
+        <v>0.1477230119975556</v>
       </c>
       <c r="R19">
-        <v>0.359389337363</v>
+        <v>1.329507107978</v>
       </c>
       <c r="S19">
-        <v>2.830293601434123E-05</v>
+        <v>5.213657168172248E-05</v>
       </c>
       <c r="T19">
-        <v>2.830293601434122E-05</v>
+        <v>5.213657168172247E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H20">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J20">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N20">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O20">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P20">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q20">
-        <v>198.5444246509176</v>
+        <v>408.3574164644465</v>
       </c>
       <c r="R20">
-        <v>1786.899821858258</v>
+        <v>3675.216748180018</v>
       </c>
       <c r="S20">
-        <v>0.1407234607826147</v>
+        <v>0.1441234877854637</v>
       </c>
       <c r="T20">
-        <v>0.1407234607826147</v>
+        <v>0.1441234877854637</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H21">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J21">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.450001</v>
       </c>
       <c r="O21">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P21">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q21">
-        <v>5.069976622653666</v>
+        <v>4.198375199010445</v>
       </c>
       <c r="R21">
-        <v>45.629789603883</v>
+        <v>37.785376791094</v>
       </c>
       <c r="S21">
-        <v>0.003593476158704512</v>
+        <v>0.001481752142405518</v>
       </c>
       <c r="T21">
-        <v>0.003593476158704511</v>
+        <v>0.001481752142405517</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>22</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H22">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J22">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N22">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O22">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P22">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q22">
-        <v>0.9590365624273333</v>
+        <v>1.459408668159778</v>
       </c>
       <c r="R22">
-        <v>8.631329061845999</v>
+        <v>13.134678013438</v>
       </c>
       <c r="S22">
-        <v>0.0006797417974295798</v>
+        <v>0.0005150759086993058</v>
       </c>
       <c r="T22">
-        <v>0.0006797417974295797</v>
+        <v>0.0005150759086993057</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H23">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J23">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N23">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O23">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P23">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q23">
-        <v>105.2055220328796</v>
+        <v>84.91790175362512</v>
       </c>
       <c r="R23">
-        <v>946.8496982959168</v>
+        <v>764.261115782626</v>
       </c>
       <c r="S23">
-        <v>0.0745671160494107</v>
+        <v>0.02997047116743466</v>
       </c>
       <c r="T23">
-        <v>0.07456711604941069</v>
+        <v>0.02997047116743465</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,14 +1892,14 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>3</v>
       </c>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H24">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J24">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N24">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O24">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P24">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q24">
-        <v>6.306038924130999</v>
+        <v>6.197825936664223</v>
       </c>
       <c r="R24">
-        <v>56.75435031717898</v>
+        <v>55.780433429978</v>
       </c>
       <c r="S24">
-        <v>0.004469567064367775</v>
+        <v>0.002187427617730134</v>
       </c>
       <c r="T24">
-        <v>0.004469567064367774</v>
+        <v>0.002187427617730134</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.417961</v>
+        <v>2.830364666666667</v>
       </c>
       <c r="H25">
-        <v>10.253883</v>
+        <v>8.491094</v>
       </c>
       <c r="I25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="J25">
-        <v>0.2255545881767044</v>
+        <v>0.1789693243102823</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N25">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O25">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P25">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q25">
-        <v>2.146273291019666</v>
+        <v>1.958180246994222</v>
       </c>
       <c r="R25">
-        <v>19.316459619177</v>
+        <v>17.623622222948</v>
       </c>
       <c r="S25">
-        <v>0.001521226324177135</v>
+        <v>0.0006911096885489763</v>
       </c>
       <c r="T25">
-        <v>0.001521226324177135</v>
+        <v>0.0006911096885489759</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H26">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I26">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J26">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>58.08855766666665</v>
+        <v>144.2773156666667</v>
       </c>
       <c r="N26">
-        <v>174.265673</v>
+        <v>432.831947</v>
       </c>
       <c r="O26">
-        <v>0.6238997925964108</v>
+        <v>0.8052971554812057</v>
       </c>
       <c r="P26">
-        <v>0.6238997925964107</v>
+        <v>0.8052971554812056</v>
       </c>
       <c r="Q26">
-        <v>4.002533977463998</v>
+        <v>76.24753150620434</v>
       </c>
       <c r="R26">
-        <v>36.02280579717599</v>
+        <v>686.2277835558391</v>
       </c>
       <c r="S26">
-        <v>0.002836898765598931</v>
+        <v>0.02691039695286877</v>
       </c>
       <c r="T26">
-        <v>0.002836898765598931</v>
+        <v>0.02691039695286876</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H27">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I27">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J27">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>4.450001</v>
       </c>
       <c r="O27">
-        <v>0.01593173602786259</v>
+        <v>0.0082793637854752</v>
       </c>
       <c r="P27">
-        <v>0.01593173602786259</v>
+        <v>0.008279363785475198</v>
       </c>
       <c r="Q27">
-        <v>0.102207622968</v>
+        <v>0.7839106928263334</v>
       </c>
       <c r="R27">
-        <v>0.919868606712</v>
+        <v>7.055196235437001</v>
       </c>
       <c r="S27">
-        <v>7.244227808315417E-05</v>
+        <v>0.0002766692573888567</v>
       </c>
       <c r="T27">
-        <v>7.244227808315417E-05</v>
+        <v>0.0002766692573888566</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H28">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I28">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J28">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2805873333333334</v>
+        <v>0.5156256666666666</v>
       </c>
       <c r="N28">
-        <v>0.8417620000000001</v>
+        <v>1.546877</v>
       </c>
       <c r="O28">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364554</v>
       </c>
       <c r="P28">
-        <v>0.003013646509806553</v>
+        <v>0.002878012255364553</v>
       </c>
       <c r="Q28">
-        <v>0.019333589616</v>
+        <v>0.2724973366943333</v>
       </c>
       <c r="R28">
-        <v>0.174002306544</v>
+        <v>2.452476030249001</v>
       </c>
       <c r="S28">
-        <v>1.370317824284355E-05</v>
+        <v>9.617375610969581E-05</v>
       </c>
       <c r="T28">
-        <v>1.370317824284355E-05</v>
+        <v>9.617375610969577E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H29">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I29">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J29">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>30.78019966666666</v>
+        <v>30.00245966666667</v>
       </c>
       <c r="N29">
-        <v>92.340599</v>
+        <v>90.007379</v>
       </c>
       <c r="O29">
-        <v>0.3305945432198133</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="P29">
-        <v>0.3305945432198132</v>
+        <v>0.1674614981250883</v>
       </c>
       <c r="Q29">
-        <v>2.120878877832</v>
+        <v>15.85566988218033</v>
       </c>
       <c r="R29">
-        <v>19.087909900488</v>
+        <v>142.701028939623</v>
       </c>
       <c r="S29">
-        <v>0.001503227381549583</v>
+        <v>0.005596015530658842</v>
       </c>
       <c r="T29">
-        <v>0.001503227381549583</v>
+        <v>0.00559601553065884</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
       </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H30">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I30">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J30">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.844971</v>
+        <v>2.189762333333333</v>
       </c>
       <c r="N30">
-        <v>5.534913</v>
+        <v>6.569287</v>
       </c>
       <c r="O30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="P30">
-        <v>0.01981589955894055</v>
+        <v>0.01222236059816459</v>
       </c>
       <c r="Q30">
-        <v>0.127125881784</v>
+        <v>1.157243408157667</v>
       </c>
       <c r="R30">
-        <v>1.144132936056</v>
+        <v>10.415190673419</v>
       </c>
       <c r="S30">
-        <v>9.010373406928785E-05</v>
+        <v>0.0004084313140298778</v>
       </c>
       <c r="T30">
-        <v>9.010373406928786E-05</v>
+        <v>0.0004084313140298777</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,31 +2326,31 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.06890399999999999</v>
+        <v>0.528479</v>
       </c>
       <c r="H31">
-        <v>0.206712</v>
+        <v>1.585437</v>
       </c>
       <c r="I31">
-        <v>0.004547042328372864</v>
+        <v>0.03341672917842166</v>
       </c>
       <c r="J31">
-        <v>0.004547042328372865</v>
+        <v>0.03341672917842165</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,400 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.6279396666666667</v>
+        <v>0.6918473333333334</v>
       </c>
       <c r="N31">
-        <v>1.883819</v>
+        <v>2.075542</v>
       </c>
       <c r="O31">
-        <v>0.00674438208716629</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="P31">
-        <v>0.006744382087166289</v>
+        <v>0.0038616097547018</v>
       </c>
       <c r="Q31">
-        <v>0.04326755479199999</v>
+        <v>0.3656267868726667</v>
       </c>
       <c r="R31">
-        <v>0.389407993128</v>
+        <v>3.290641081854</v>
       </c>
       <c r="S31">
-        <v>3.066699082906484E-05</v>
+        <v>0.0001290423673656214</v>
       </c>
       <c r="T31">
-        <v>3.066699082906485E-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G32">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H32">
-        <v>0.126091</v>
-      </c>
-      <c r="I32">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J32">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>58.08855766666665</v>
-      </c>
-      <c r="N32">
-        <v>174.265673</v>
-      </c>
-      <c r="O32">
-        <v>0.6238997925964108</v>
-      </c>
-      <c r="P32">
-        <v>0.6238997925964107</v>
-      </c>
-      <c r="Q32">
-        <v>2.441481441582555</v>
-      </c>
-      <c r="R32">
-        <v>21.973332974243</v>
-      </c>
-      <c r="S32">
-        <v>0.001730462683603926</v>
-      </c>
-      <c r="T32">
-        <v>0.001730462683603926</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G33">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H33">
-        <v>0.126091</v>
-      </c>
-      <c r="I33">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J33">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1.483333666666667</v>
-      </c>
-      <c r="N33">
-        <v>4.450001</v>
-      </c>
-      <c r="O33">
-        <v>0.01593173602786259</v>
-      </c>
-      <c r="P33">
-        <v>0.01593173602786259</v>
-      </c>
-      <c r="Q33">
-        <v>0.06234500845455557</v>
-      </c>
-      <c r="R33">
-        <v>0.5611050760910001</v>
-      </c>
-      <c r="S33">
-        <v>4.41886261357976E-05</v>
-      </c>
-      <c r="T33">
-        <v>4.41886261357976E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G34">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H34">
-        <v>0.126091</v>
-      </c>
-      <c r="I34">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J34">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.2805873333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.8417620000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.003013646509806553</v>
-      </c>
-      <c r="P34">
-        <v>0.003013646509806553</v>
-      </c>
-      <c r="Q34">
-        <v>0.01179317914911111</v>
-      </c>
-      <c r="R34">
-        <v>0.106138612342</v>
-      </c>
-      <c r="S34">
-        <v>8.358718641483734E-06</v>
-      </c>
-      <c r="T34">
-        <v>8.358718641483734E-06</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G35">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H35">
-        <v>0.126091</v>
-      </c>
-      <c r="I35">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J35">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>30.78019966666666</v>
-      </c>
-      <c r="N35">
-        <v>92.340599</v>
-      </c>
-      <c r="O35">
-        <v>0.3305945432198133</v>
-      </c>
-      <c r="P35">
-        <v>0.3305945432198132</v>
-      </c>
-      <c r="Q35">
-        <v>1.293702052056556</v>
-      </c>
-      <c r="R35">
-        <v>11.643318468509</v>
-      </c>
-      <c r="S35">
-        <v>0.0009169445594206845</v>
-      </c>
-      <c r="T35">
-        <v>0.0009169445594206845</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G36">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H36">
-        <v>0.126091</v>
-      </c>
-      <c r="I36">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J36">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>1.844971</v>
-      </c>
-      <c r="N36">
-        <v>5.534913</v>
-      </c>
-      <c r="O36">
-        <v>0.01981589955894055</v>
-      </c>
-      <c r="P36">
-        <v>0.01981589955894055</v>
-      </c>
-      <c r="Q36">
-        <v>0.07754474612033334</v>
-      </c>
-      <c r="R36">
-        <v>0.6979027150829999</v>
-      </c>
-      <c r="S36">
-        <v>5.496183062681691E-05</v>
-      </c>
-      <c r="T36">
-        <v>5.496183062681691E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G37">
-        <v>0.04203033333333334</v>
-      </c>
-      <c r="H37">
-        <v>0.126091</v>
-      </c>
-      <c r="I37">
-        <v>0.002773622790292111</v>
-      </c>
-      <c r="J37">
-        <v>0.002773622790292112</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0.6279396666666667</v>
-      </c>
-      <c r="N37">
-        <v>1.883819</v>
-      </c>
-      <c r="O37">
-        <v>0.00674438208716629</v>
-      </c>
-      <c r="P37">
-        <v>0.006744382087166289</v>
-      </c>
-      <c r="Q37">
-        <v>0.02639251350322222</v>
-      </c>
-      <c r="R37">
-        <v>0.237532621529</v>
-      </c>
-      <c r="S37">
-        <v>1.87063718634023E-05</v>
-      </c>
-      <c r="T37">
-        <v>1.87063718634023E-05</v>
+        <v>0.0001290423673656213</v>
       </c>
     </row>
   </sheetData>
